--- a/awsomeqa Login Page TC.xlsx
+++ b/awsomeqa Login Page TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Test Case Template for Project</t>
   </si>
@@ -153,6 +153,39 @@
 2. Go to URL https://awesomeqa.com/ui/
 3. Click on My Account
 4. Click on Login</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Email ID:- ____________
+Password:- xyz@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify login with blank Email ID and Valid Password
+</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Email ID:- xyz@gmail.com
+Password:- ____________</t>
+  </si>
+  <si>
+    <t>Verify login with valid Email ID
+and blank Password</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>Email ID:- ____________
+Password:- ____________</t>
+  </si>
+  <si>
+    <t>Verify login with blank Email ID
+and Password</t>
   </si>
 </sst>
 </file>
@@ -954,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1049,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1290,6 +1323,84 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" spans="1:15" ht="96" customHeight="1">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="96.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="94.5" customHeight="1">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1300,7 +1411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/awsomeqa Login Page TC.xlsx
+++ b/awsomeqa Login Page TC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>Test Case Template for Project</t>
   </si>
@@ -186,6 +186,26 @@
   <si>
     <t>Verify login with blank Email ID
 and Password</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>Email ID:- $#@&amp;#@$</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Password:- #@$%^%$#</t>
+  </si>
+  <si>
+    <t>Verify login with special characters 
+in password field</t>
+  </si>
+  <si>
+    <t>Verify login with special characters
+in Email ID field</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,6 +1421,58 @@
         <v>37</v>
       </c>
     </row>
+    <row r="17" spans="1:8" ht="96" customHeight="1">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="95.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
